--- a/result/report.xlsx
+++ b/result/report.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="13875" windowHeight="7905"/>
+    <workbookView windowHeight="7905" windowWidth="13875" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
+    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -28,6 +28,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -55,16 +56,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -77,7 +78,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -289,7 +290,7 @@
     </a:effectLst>
     <a:scene3d>
       <a:camera prst="orthographicFront"/>
-      <a:lightRig rig="threePt" dir="t"/>
+      <a:lightRig dir="t" rig="threePt"/>
     </a:scene3d>
     <a:sp3d>
       <a:bevelT/>
@@ -297,14 +298,14 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75" footer="0.3" header="0.3" l="0.7" r="0.7" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -343,10 +344,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -381,7 +382,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -416,7 +417,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -504,7 +505,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -513,13 +514,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -529,7 +530,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -538,7 +539,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -547,7 +548,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -557,12 +558,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -593,7 +594,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -612,7 +613,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -624,8 +625,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,40 +641,40 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
+      <c r="A2" t="n">
+        <v>3.0</v>
       </c>
-      <c r="B2">
-        <v>2</v>
+      <c r="B2" t="n">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/result/report.xlsx
+++ b/result/report.xlsx
@@ -642,7 +642,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B2" t="n">
         <v>1.0</v>
